--- a/Company_Class.xlsx
+++ b/Company_Class.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
   <si>
     <t>Areacode</t>
   </si>
@@ -245,6 +245,12 @@
   </si>
   <si>
     <t>Swan Aluminum &amp; Allied Products Inc</t>
+  </si>
+  <si>
+    <t>Aai Worldwide Logistics Inc.</t>
+  </si>
+  <si>
+    <t>100X CORP.</t>
   </si>
 </sst>
 </file>
@@ -254,7 +260,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -269,6 +275,11 @@
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="3">
@@ -327,7 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -547,17 +558,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -585,10 +596,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -836,12 +847,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1128,7 +1139,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1156,10 +1167,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1410,7 +1421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1887,7 +1898,7 @@
       <c r="C26" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="3"/>
       <c r="E26" t="s" s="2">
         <v>7</v>
       </c>
@@ -2689,6 +2700,36 @@
       </c>
       <c r="F70" s="3">
         <v>104491</v>
+      </c>
+    </row>
+    <row r="71" ht="13.55" customHeight="1">
+      <c r="A71" s="3">
+        <v>2</v>
+      </c>
+      <c r="B71" s="3">
+        <v>8222529</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="F71" s="3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="72" ht="13.55" customHeight="1">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" t="s" s="4">
+        <v>79</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="3">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
